--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mfng-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mfng-Notch2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.416292</v>
+        <v>20.65176033333333</v>
       </c>
       <c r="H2">
-        <v>43.248876</v>
+        <v>61.955281</v>
       </c>
       <c r="I2">
-        <v>0.8004770782290025</v>
+        <v>0.8502439951095444</v>
       </c>
       <c r="J2">
-        <v>0.8004770782290025</v>
+        <v>0.8502439951095444</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N2">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q2">
-        <v>43.15001387489467</v>
+        <v>39.45349467248599</v>
       </c>
       <c r="R2">
-        <v>388.350124874052</v>
+        <v>355.081452052374</v>
       </c>
       <c r="S2">
-        <v>0.02789171034762377</v>
+        <v>0.01538197075924823</v>
       </c>
       <c r="T2">
-        <v>0.02789171034762377</v>
+        <v>0.01538197075924823</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.416292</v>
+        <v>20.65176033333333</v>
       </c>
       <c r="H3">
-        <v>43.248876</v>
+        <v>61.955281</v>
       </c>
       <c r="I3">
-        <v>0.8004770782290025</v>
+        <v>0.8502439951095444</v>
       </c>
       <c r="J3">
-        <v>0.8004770782290025</v>
+        <v>0.8502439951095444</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>95.985786</v>
       </c>
       <c r="O3">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P3">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q3">
-        <v>461.253039608504</v>
+        <v>660.7584826262073</v>
       </c>
       <c r="R3">
-        <v>4151.277356476536</v>
+        <v>5946.826343635867</v>
       </c>
       <c r="S3">
-        <v>0.2981490623623312</v>
+        <v>0.257613875350047</v>
       </c>
       <c r="T3">
-        <v>0.2981490623623312</v>
+        <v>0.257613875350047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.416292</v>
+        <v>20.65176033333333</v>
       </c>
       <c r="H4">
-        <v>43.248876</v>
+        <v>61.955281</v>
       </c>
       <c r="I4">
-        <v>0.8004770782290025</v>
+        <v>0.8502439951095444</v>
       </c>
       <c r="J4">
-        <v>0.8004770782290025</v>
+        <v>0.8502439951095444</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N4">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O4">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P4">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q4">
-        <v>239.6546313660693</v>
+        <v>781.8488195833269</v>
       </c>
       <c r="R4">
-        <v>2156.891682294623</v>
+        <v>7036.639376249942</v>
       </c>
       <c r="S4">
-        <v>0.1549102065391925</v>
+        <v>0.3048240917773606</v>
       </c>
       <c r="T4">
-        <v>0.1549102065391925</v>
+        <v>0.3048240917773606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.416292</v>
+        <v>20.65176033333333</v>
       </c>
       <c r="H5">
-        <v>43.248876</v>
+        <v>61.955281</v>
       </c>
       <c r="I5">
-        <v>0.8004770782290025</v>
+        <v>0.8502439951095444</v>
       </c>
       <c r="J5">
-        <v>0.8004770782290025</v>
+        <v>0.8502439951095444</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N5">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q5">
-        <v>494.3244939995706</v>
+        <v>698.7453856547015</v>
       </c>
       <c r="R5">
-        <v>4448.920445996136</v>
+        <v>6288.708470892314</v>
       </c>
       <c r="S5">
-        <v>0.319526098979855</v>
+        <v>0.2724240572228884</v>
       </c>
       <c r="T5">
-        <v>0.319526098979855</v>
+        <v>0.2724240572228884</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4146863333333333</v>
+        <v>0.3109896666666667</v>
       </c>
       <c r="H6">
-        <v>1.244059</v>
+        <v>0.932969</v>
       </c>
       <c r="I6">
-        <v>0.02302581721348075</v>
+        <v>0.01280361055699766</v>
       </c>
       <c r="J6">
-        <v>0.02302581721348075</v>
+        <v>0.01280361055699766</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N6">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O6">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P6">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q6">
-        <v>1.241215219354778</v>
+        <v>0.594120257014</v>
       </c>
       <c r="R6">
-        <v>11.170936974193</v>
+        <v>5.347082313126</v>
       </c>
       <c r="S6">
-        <v>0.0008023083255008634</v>
+        <v>0.0002316332303824926</v>
       </c>
       <c r="T6">
-        <v>0.0008023083255008635</v>
+        <v>0.0002316332303824926</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4146863333333333</v>
+        <v>0.3109896666666667</v>
       </c>
       <c r="H7">
-        <v>1.244059</v>
+        <v>0.932969</v>
       </c>
       <c r="I7">
-        <v>0.02302581721348075</v>
+        <v>0.01280361055699766</v>
       </c>
       <c r="J7">
-        <v>0.02302581721348075</v>
+        <v>0.01280361055699766</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>95.985786</v>
       </c>
       <c r="O7">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P7">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q7">
-        <v>13.26799788281933</v>
+        <v>9.950195864292667</v>
       </c>
       <c r="R7">
-        <v>119.411980945374</v>
+        <v>89.55176277863401</v>
       </c>
       <c r="S7">
-        <v>0.008576292812174341</v>
+        <v>0.003879342580521232</v>
       </c>
       <c r="T7">
-        <v>0.008576292812174343</v>
+        <v>0.003879342580521232</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.4146863333333333</v>
+        <v>0.3109896666666667</v>
       </c>
       <c r="H8">
-        <v>1.244059</v>
+        <v>0.932969</v>
       </c>
       <c r="I8">
-        <v>0.02302581721348075</v>
+        <v>0.01280361055699766</v>
       </c>
       <c r="J8">
-        <v>0.02302581721348075</v>
+        <v>0.01280361055699766</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N8">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O8">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P8">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q8">
-        <v>6.893693631312888</v>
+        <v>11.773664804423</v>
       </c>
       <c r="R8">
-        <v>62.043242681816</v>
+        <v>105.962983239807</v>
       </c>
       <c r="S8">
-        <v>0.004456010293468466</v>
+        <v>0.00459026936027346</v>
       </c>
       <c r="T8">
-        <v>0.004456010293468466</v>
+        <v>0.00459026936027346</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.4146863333333333</v>
+        <v>0.3109896666666667</v>
       </c>
       <c r="H9">
-        <v>1.244059</v>
+        <v>0.932969</v>
       </c>
       <c r="I9">
-        <v>0.02302581721348075</v>
+        <v>0.01280361055699766</v>
       </c>
       <c r="J9">
-        <v>0.02302581721348075</v>
+        <v>0.01280361055699766</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N9">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O9">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P9">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q9">
-        <v>14.21930215436378</v>
+        <v>10.52223108646511</v>
       </c>
       <c r="R9">
-        <v>127.973719389274</v>
+        <v>94.70007977818601</v>
       </c>
       <c r="S9">
-        <v>0.009191205782337081</v>
+        <v>0.004102365385820476</v>
       </c>
       <c r="T9">
-        <v>0.009191205782337081</v>
+        <v>0.004102365385820476</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.178646666666667</v>
+        <v>3.326466333333334</v>
       </c>
       <c r="H10">
-        <v>9.53594</v>
+        <v>9.979399000000001</v>
       </c>
       <c r="I10">
-        <v>0.1764971045575167</v>
+        <v>0.1369523943334579</v>
       </c>
       <c r="J10">
-        <v>0.1764971045575167</v>
+        <v>0.1369523943334579</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N10">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O10">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P10">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q10">
-        <v>9.514141900708891</v>
+        <v>6.354941159594</v>
       </c>
       <c r="R10">
-        <v>85.62727710638001</v>
+        <v>57.194470436346</v>
       </c>
       <c r="S10">
-        <v>0.006149840203299606</v>
+        <v>0.002477639050864301</v>
       </c>
       <c r="T10">
-        <v>0.006149840203299606</v>
+        <v>0.002477639050864301</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.178646666666667</v>
+        <v>3.326466333333334</v>
       </c>
       <c r="H11">
-        <v>9.53594</v>
+        <v>9.979399000000001</v>
       </c>
       <c r="I11">
-        <v>0.1764971045575167</v>
+        <v>0.1369523943334579</v>
       </c>
       <c r="J11">
-        <v>0.1764971045575167</v>
+        <v>0.1369523943334579</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>95.985786</v>
       </c>
       <c r="O11">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P11">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q11">
-        <v>101.7016329054267</v>
+        <v>106.4311618691793</v>
       </c>
       <c r="R11">
-        <v>915.3146961488401</v>
+        <v>957.8804568226141</v>
       </c>
       <c r="S11">
-        <v>0.06573885457146791</v>
+        <v>0.04149495585460075</v>
       </c>
       <c r="T11">
-        <v>0.06573885457146791</v>
+        <v>0.04149495585460075</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.178646666666667</v>
+        <v>3.326466333333334</v>
       </c>
       <c r="H12">
-        <v>9.53594</v>
+        <v>9.979399000000001</v>
       </c>
       <c r="I12">
-        <v>0.1764971045575167</v>
+        <v>0.1369523943334579</v>
       </c>
       <c r="J12">
-        <v>0.1764971045575167</v>
+        <v>0.1369523943334579</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N12">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O12">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P12">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q12">
-        <v>52.84142379628445</v>
+        <v>125.935694300233</v>
       </c>
       <c r="R12">
-        <v>475.57281416656</v>
+        <v>1133.421248702097</v>
       </c>
       <c r="S12">
-        <v>0.03415613471539347</v>
+        <v>0.04909930497545321</v>
       </c>
       <c r="T12">
-        <v>0.03415613471539348</v>
+        <v>0.04909930497545321</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.178646666666667</v>
+        <v>3.326466333333334</v>
       </c>
       <c r="H13">
-        <v>9.53594</v>
+        <v>9.979399000000001</v>
       </c>
       <c r="I13">
-        <v>0.1764971045575167</v>
+        <v>0.1369523943334579</v>
       </c>
       <c r="J13">
-        <v>0.1764971045575167</v>
+        <v>0.1369523943334579</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N13">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O13">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P13">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q13">
-        <v>108.9935543136489</v>
+        <v>112.5498729132896</v>
       </c>
       <c r="R13">
-        <v>980.94198882284</v>
+        <v>1012.948856219606</v>
       </c>
       <c r="S13">
-        <v>0.07045227506735571</v>
+        <v>0.04388049445253966</v>
       </c>
       <c r="T13">
-        <v>0.07045227506735571</v>
+        <v>0.04388049445253966</v>
       </c>
     </row>
   </sheetData>
